--- a/dist/マニュアル.xlsx
+++ b/dist/マニュアル.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ZZZZZ成果物Temp\20241225\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DriveH\GitHub\KimaiAutoInput\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2F9BC-3F11-468F-8848-A439F808FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2948BE0-AF88-4B45-AB32-2A72DD0009F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>https://github.com/WuSphere/KimaiAutoInput/tree/main/dist</t>
     <phoneticPr fontId="1"/>
@@ -75,86 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>③「勤怠データ」を入力する</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付（必須）：下記画像の通りに指定する</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始時間（必須）：下記画像の通りに指定する</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業時間（必須）：下記画像の通りに指定する</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト（必須）：下記画像の通りに指定する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクティビティ（必須）：下記画像の通りに指定する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明（任意）：入力不要の場合、空でいいです。</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タブ（任意）：入力不要の場合、空でいいです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>④「KimaiAutoInput.exe」をダブルクリックする</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -214,6 +134,90 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③「勤怠データ -SAMPLE .xlsx」をコピーして、対象年月の勤怠データを入力する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ -1 対象年月を数値「6桁」で入力する</t>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③-2 日々の作業時間を入力する。以下必須項目は必ず入力してください</t>
+    <rPh sb="4" eb="6">
+      <t>ヒビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・日付</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・作業開始時間</t>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・作業時間</t>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -274,10 +278,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -344,59 +349,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>37245</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47262</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AF900C-A713-896B-E0B1-C6607D23EC09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="161925" y="5953125"/>
-          <a:ext cx="6838095" cy="2904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>94084</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>113690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -413,7 +374,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -434,13 +395,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>65189</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>188869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -457,7 +418,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -478,13 +439,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>9980</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>79376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -501,7 +462,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -510,6 +471,50 @@
         <a:xfrm>
           <a:off x="317500" y="29527501"/>
           <a:ext cx="11598730" cy="4603750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>11511</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE38B6A-32F7-B3BB-4688-22C90110E5DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="6905625"/>
+          <a:ext cx="11993961" cy="9344025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,112 +789,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C125"/>
+  <dimension ref="B1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BC22" sqref="BC22"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="2.125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" t="s">
-        <v>19</v>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="3"/>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
+    <row r="72" spans="2:3">
+      <c r="C72" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+    <row r="95" spans="3:3">
+      <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
+    <row r="152" spans="3:3">
+      <c r="C152" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3">
-      <c r="C125" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +1015,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="66" max="16383" man="1"/>
+    <brk id="93" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="76" max="158" man="1"/>
